--- a/app/tables/scan_childvacc_822a_pg2/forms/scan_childvacc_822a_pg2/scan_childvacc_822a_pg2.xlsx
+++ b/app/tables/scan_childvacc_822a_pg2/forms/scan_childvacc_822a_pg2/scan_childvacc_822a_pg2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18200" windowHeight="8500"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18200" windowHeight="8500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="67">
   <si>
     <t>setting_name</t>
   </si>
@@ -220,16 +220,35 @@
   </si>
   <si>
     <t>hideInContents</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -252,13 +271,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -560,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -711,6 +734,9 @@
       <c r="D16" t="s">
         <v>31</v>
       </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
@@ -743,6 +769,9 @@
       <c r="D20" t="s">
         <v>33</v>
       </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
@@ -775,6 +804,9 @@
       <c r="D24" t="s">
         <v>35</v>
       </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
@@ -807,6 +839,9 @@
       <c r="D28" t="s">
         <v>37</v>
       </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
@@ -839,6 +874,9 @@
       <c r="D32" t="s">
         <v>39</v>
       </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
@@ -870,6 +908,9 @@
       </c>
       <c r="D36" t="s">
         <v>41</v>
+      </c>
+      <c r="F36" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1011,6 +1052,9 @@
       <c r="E52" t="s">
         <v>17</v>
       </c>
+      <c r="F52" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
@@ -1174,6 +1218,9 @@
       <c r="E72" t="s">
         <v>18</v>
       </c>
+      <c r="F72" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
@@ -1246,6 +1293,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1258,7 +1306,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
@@ -1277,55 +1327,55 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
